--- a/PES/SRB Invoices/1015  Invoice for O & M charges FTC Building November 23.xlsx
+++ b/PES/SRB Invoices/1015  Invoice for O & M charges FTC Building November 23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8700135-A50E-4EB2-80D0-716A7666FCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BB8C11-416C-4945-A391-75A65FF8C244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,12 +85,6 @@
     <t>Maintenance / Operation Charges of  equipment at Fakhri Trade Centre</t>
   </si>
   <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>30% inc</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -104,6 +98,12 @@
   </si>
   <si>
     <t>for the Month of November 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32% inc </t>
   </si>
 </sst>
 </file>
@@ -467,6 +467,24 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,24 +526,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -836,7 +836,7 @@
   <dimension ref="A6:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -893,16 +893,16 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -922,11 +922,11 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="F15" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
       <c r="K15" s="1"/>
       <c r="O15" s="8"/>
     </row>
@@ -936,11 +936,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="F16" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
       <c r="K16" s="1"/>
       <c r="O16" s="8"/>
     </row>
@@ -962,11 +962,11 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
       <c r="K18" s="1"/>
       <c r="O18" s="8"/>
     </row>
@@ -974,19 +974,19 @@
       <c r="A19" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="61"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="38"/>
       <c r="E19" s="4"/>
       <c r="F19" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="58"/>
+      <c r="H19" s="64"/>
       <c r="K19" s="1"/>
       <c r="O19" s="8"/>
     </row>
@@ -994,19 +994,19 @@
       <c r="A20" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="39"/>
       <c r="E20" s="3"/>
       <c r="F20" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="60"/>
+      <c r="H20" s="66"/>
       <c r="K20" s="1"/>
       <c r="O20" s="8"/>
     </row>
@@ -1014,17 +1014,17 @@
       <c r="A21" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
       <c r="F21" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
       <c r="K21" s="1"/>
       <c r="O21" s="8"/>
     </row>
@@ -1032,19 +1032,19 @@
       <c r="A22" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="40"/>
       <c r="E22" s="3"/>
       <c r="F22" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="51"/>
+      <c r="H22" s="57"/>
       <c r="K22" s="1"/>
       <c r="O22" s="8"/>
     </row>
@@ -1070,11 +1070,11 @@
       <c r="A26" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="33" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K26" s="1"/>
       <c r="O26" s="8"/>
@@ -1105,11 +1105,11 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1120,9 +1120,9 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="9"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -1132,62 +1132,60 @@
       <c r="O29" s="8"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="49">
+      <c r="A30" s="55">
         <v>1</v>
       </c>
-      <c r="B30" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="66">
-        <v>194400</v>
-      </c>
-      <c r="F30" s="67">
+      <c r="B30" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52">
+        <v>256608</v>
+      </c>
+      <c r="F30" s="53">
         <v>0.1</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="52">
         <f>E30*10%</f>
-        <v>19440</v>
-      </c>
-      <c r="H30" s="57">
+        <v>25660.800000000003</v>
+      </c>
+      <c r="H30" s="63">
         <f>E30+G30</f>
-        <v>213840</v>
+        <v>282268.79999999999</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="46" t="s">
-        <v>22</v>
-      </c>
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="57"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="63"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="45">
-        <v>194000</v>
+        <v>194400</v>
       </c>
       <c r="L31" s="45">
-        <f>K31*30%</f>
-        <v>58200</v>
+        <v>62208</v>
       </c>
       <c r="M31" s="47">
-        <f>L31+K31</f>
-        <v>252200</v>
+        <v>256608</v>
       </c>
       <c r="O31" s="8"/>
     </row>
@@ -1271,23 +1269,23 @@
     </row>
     <row r="38" spans="1:15" s="23" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="37"/>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="19">
         <f>SUM(E30:E36)</f>
-        <v>194400</v>
+        <v>256608</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="21">
         <f>SUM(G30:G36)</f>
-        <v>19440</v>
+        <v>25660.800000000003</v>
       </c>
       <c r="H38" s="22">
         <f>SUM(H30:H36)</f>
-        <v>213840</v>
+        <v>282268.79999999999</v>
       </c>
       <c r="J38" s="24"/>
       <c r="L38" s="25"/>
@@ -1341,11 +1339,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B20:C20"/>
@@ -1362,6 +1355,11 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B28:D29"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/PES/SRB Invoices/1015  Invoice for O & M charges FTC Building November 23.xlsx
+++ b/PES/SRB Invoices/1015  Invoice for O & M charges FTC Building November 23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\PES\SRB Invoices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BB8C11-416C-4945-A391-75A65FF8C244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096A4ED2-28D8-4FE9-9886-C2FCB12914B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>Value Including Sales Tax</t>
   </si>
   <si>
-    <t>Dated: 01-12-2023</t>
-  </si>
-  <si>
     <t>Invoice # 1015</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 32% inc </t>
+  </si>
+  <si>
+    <t>Dated: 20-01-2024</t>
   </si>
 </sst>
 </file>
@@ -467,65 +467,65 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -893,16 +893,16 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -922,11 +922,11 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
+      <c r="F15" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
       <c r="K15" s="1"/>
       <c r="O15" s="8"/>
     </row>
@@ -936,11 +936,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="F16" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
       <c r="K16" s="1"/>
       <c r="O16" s="8"/>
     </row>
@@ -962,11 +962,11 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
       <c r="K18" s="1"/>
       <c r="O18" s="8"/>
     </row>
@@ -974,19 +974,19 @@
       <c r="A19" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="67"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="38"/>
       <c r="E19" s="4"/>
       <c r="F19" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="64"/>
+      <c r="H19" s="58"/>
       <c r="K19" s="1"/>
       <c r="O19" s="8"/>
     </row>
@@ -994,19 +994,19 @@
       <c r="A20" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="39"/>
       <c r="E20" s="3"/>
       <c r="F20" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="66"/>
+      <c r="H20" s="60"/>
       <c r="K20" s="1"/>
       <c r="O20" s="8"/>
     </row>
@@ -1014,17 +1014,17 @@
       <c r="A21" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
       <c r="F21" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
       <c r="K21" s="1"/>
       <c r="O21" s="8"/>
     </row>
@@ -1032,19 +1032,19 @@
       <c r="A22" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="40"/>
       <c r="E22" s="3"/>
       <c r="F22" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="57"/>
+      <c r="H22" s="51"/>
       <c r="K22" s="1"/>
       <c r="O22" s="8"/>
     </row>
@@ -1070,11 +1070,11 @@
       <c r="A26" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="33" t="s">
         <v>13</v>
       </c>
@@ -1105,11 +1105,11 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1120,9 +1120,9 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="9"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -1132,35 +1132,35 @@
       <c r="O29" s="8"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="55">
+      <c r="A30" s="49">
         <v>1</v>
       </c>
-      <c r="B30" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52">
+      <c r="B30" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="66">
         <v>256608</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="67">
         <v>0.1</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="66">
         <f>E30*10%</f>
         <v>25660.800000000003</v>
       </c>
-      <c r="H30" s="63">
+      <c r="H30" s="57">
         <f>E30+G30</f>
         <v>282268.79999999999</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="45" t="s">
         <v>25</v>
-      </c>
-      <c r="L30" s="45" t="s">
-        <v>26</v>
       </c>
       <c r="M30" s="46" t="s">
         <v>20</v>
@@ -1168,14 +1168,14 @@
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="63"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="57"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="45">
@@ -1269,11 +1269,11 @@
     </row>
     <row r="38" spans="1:15" s="23" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="37"/>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="19">
         <f>SUM(E30:E36)</f>
         <v>256608</v>
@@ -1339,6 +1339,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B20:C20"/>
@@ -1355,11 +1360,6 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B28:D29"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/PES/SRB Invoices/1015  Invoice for O & M charges FTC Building November 23.xlsx
+++ b/PES/SRB Invoices/1015  Invoice for O & M charges FTC Building November 23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096A4ED2-28D8-4FE9-9886-C2FCB12914B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BCE581-6040-4F52-BA7B-FD1C6B51AF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <t xml:space="preserve"> 32% inc </t>
   </si>
   <si>
-    <t>Dated: 20-01-2024</t>
+    <t>Dated: 01-02-2024</t>
   </si>
 </sst>
 </file>
@@ -467,6 +467,24 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,24 +526,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -835,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16:H16"/>
     </sheetView>
   </sheetViews>
@@ -893,16 +893,16 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -922,11 +922,11 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
       <c r="K15" s="1"/>
       <c r="O15" s="8"/>
     </row>
@@ -936,11 +936,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
       <c r="K16" s="1"/>
       <c r="O16" s="8"/>
     </row>
@@ -962,11 +962,11 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
       <c r="K18" s="1"/>
       <c r="O18" s="8"/>
     </row>
@@ -974,19 +974,19 @@
       <c r="A19" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="61"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="38"/>
       <c r="E19" s="4"/>
       <c r="F19" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="58"/>
+      <c r="H19" s="64"/>
       <c r="K19" s="1"/>
       <c r="O19" s="8"/>
     </row>
@@ -994,19 +994,19 @@
       <c r="A20" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="39"/>
       <c r="E20" s="3"/>
       <c r="F20" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="60"/>
+      <c r="H20" s="66"/>
       <c r="K20" s="1"/>
       <c r="O20" s="8"/>
     </row>
@@ -1014,17 +1014,17 @@
       <c r="A21" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
       <c r="F21" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
       <c r="K21" s="1"/>
       <c r="O21" s="8"/>
     </row>
@@ -1032,19 +1032,19 @@
       <c r="A22" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="40"/>
       <c r="E22" s="3"/>
       <c r="F22" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="51"/>
+      <c r="H22" s="57"/>
       <c r="K22" s="1"/>
       <c r="O22" s="8"/>
     </row>
@@ -1070,11 +1070,11 @@
       <c r="A26" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="33" t="s">
         <v>13</v>
       </c>
@@ -1105,11 +1105,11 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1120,9 +1120,9 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="9"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -1132,25 +1132,25 @@
       <c r="O29" s="8"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="49">
+      <c r="A30" s="55">
         <v>1</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="66">
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52">
         <v>256608</v>
       </c>
-      <c r="F30" s="67">
+      <c r="F30" s="53">
         <v>0.1</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="52">
         <f>E30*10%</f>
         <v>25660.800000000003</v>
       </c>
-      <c r="H30" s="57">
+      <c r="H30" s="63">
         <f>E30+G30</f>
         <v>282268.79999999999</v>
       </c>
@@ -1168,14 +1168,14 @@
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="57"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="63"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="45">
@@ -1269,11 +1269,11 @@
     </row>
     <row r="38" spans="1:15" s="23" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="37"/>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="19">
         <f>SUM(E30:E36)</f>
         <v>256608</v>
@@ -1339,11 +1339,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B20:C20"/>
@@ -1360,6 +1355,11 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B28:D29"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
